--- a/out/test/Figori_algorithm_1.xlsx
+++ b/out/test/Figori_algorithm_1.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.70230000000000004</v>
+        <v>0.70909999999999995</v>
       </c>
       <c r="B1">
-        <v>0.69259999999999999</v>
+        <v>0.45674999999999999</v>
       </c>
       <c r="C1">
-        <v>0.4551</v>
+        <v>0.70440000000000003</v>
       </c>
       <c r="D1">
-        <v>0.70304999999999995</v>
+        <v>0.70355000000000001</v>
       </c>
       <c r="E1">
-        <v>0.6946</v>
+        <v>0.70355000000000001</v>
       </c>
       <c r="F1">
-        <v>0.69810000000000005</v>
+        <v>0.69520000000000004</v>
       </c>
       <c r="G1">
-        <v>0.45219999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H1">
-        <v>0.70165</v>
+        <v>0.45590000000000003</v>
       </c>
       <c r="I1">
-        <v>0.70909999999999995</v>
+        <v>0.69355</v>
       </c>
       <c r="J1">
-        <v>0.69925000000000004</v>
+        <v>0.70525000000000004</v>
       </c>
       <c r="K1">
-        <v>0.45639999999999997</v>
+        <v>0.45329999999999998</v>
       </c>
       <c r="L1">
-        <v>0.69930000000000003</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="M1">
-        <v>0.70425000000000004</v>
+        <v>0.70240000000000002</v>
       </c>
       <c r="N1">
-        <v>0.45395000000000002</v>
+        <v>0.70104999999999995</v>
       </c>
       <c r="O1">
-        <v>0.70425000000000004</v>
+        <v>0.70094999999999996</v>
       </c>
       <c r="P1">
-        <v>0.68779999999999997</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="Q1">
-        <v>0.70645000000000002</v>
+        <v>0.70255000000000001</v>
       </c>
       <c r="R1">
-        <v>0.7006</v>
+        <v>0.70660000000000001</v>
       </c>
       <c r="S1">
-        <v>0.4572</v>
+        <v>0.71045000000000003</v>
       </c>
       <c r="T1">
-        <v>0.70109999999999995</v>
+        <v>0.70235000000000003</v>
       </c>
       <c r="U1">
-        <v>0.70335000000000003</v>
+        <v>0.70440000000000003</v>
       </c>
       <c r="V1">
-        <v>0.69010000000000005</v>
+        <v>0.70150000000000001</v>
       </c>
       <c r="W1">
-        <v>0.71065</v>
+        <v>0.70315000000000005</v>
       </c>
       <c r="X1">
-        <v>0.69674999999999998</v>
+        <v>0.70574999999999999</v>
       </c>
       <c r="Y1">
+        <v>0.45119999999999999</v>
+      </c>
+      <c r="Z1">
+        <v>0.70620000000000005</v>
+      </c>
+      <c r="AA1">
+        <v>0.70194999999999996</v>
+      </c>
+      <c r="AB1">
+        <v>0.70184999999999997</v>
+      </c>
+      <c r="AC1">
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="AD1">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="AE1">
+        <v>0.69994999999999996</v>
+      </c>
+      <c r="AF1">
+        <v>0.45710000000000001</v>
+      </c>
+      <c r="AG1">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="AH1">
+        <v>0.70455000000000001</v>
+      </c>
+      <c r="AI1">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="AJ1">
+        <v>0.70765</v>
+      </c>
+      <c r="AK1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="AL1">
+        <v>0.69904999999999995</v>
+      </c>
+      <c r="AM1">
+        <v>0.70984999999999998</v>
+      </c>
+      <c r="AN1">
+        <v>0.69815000000000005</v>
+      </c>
+      <c r="AO1">
+        <v>0.45695000000000002</v>
+      </c>
+      <c r="AP1">
+        <v>0.70289999999999997</v>
+      </c>
+      <c r="AQ1">
+        <v>0.70020000000000004</v>
+      </c>
+      <c r="AR1">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="AS1">
+        <v>0.70794999999999997</v>
+      </c>
+      <c r="AT1">
         <v>0.70640000000000003</v>
       </c>
-      <c r="Z1">
-        <v>0.70860000000000001</v>
-      </c>
-      <c r="AA1">
-        <v>0.69664999999999999</v>
-      </c>
-      <c r="AB1">
-        <v>0.69945000000000002</v>
-      </c>
-      <c r="AC1">
-        <v>0.70935000000000004</v>
-      </c>
-      <c r="AD1">
-        <v>0.69830000000000003</v>
-      </c>
-      <c r="AE1">
-        <v>0.70530000000000004</v>
-      </c>
-      <c r="AF1">
-        <v>0.45755000000000001</v>
-      </c>
-      <c r="AG1">
-        <v>0.70340000000000003</v>
-      </c>
-      <c r="AH1">
-        <v>0.70055000000000001</v>
-      </c>
-      <c r="AI1">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="AJ1">
-        <v>0.70335000000000003</v>
-      </c>
-      <c r="AK1">
-        <v>0.70140000000000002</v>
-      </c>
-      <c r="AL1">
-        <v>0.69889999999999997</v>
-      </c>
-      <c r="AM1">
-        <v>0.69359999999999999</v>
-      </c>
-      <c r="AN1">
-        <v>0.69904999999999995</v>
-      </c>
-      <c r="AO1">
-        <v>0.69504999999999995</v>
-      </c>
-      <c r="AP1">
-        <v>0.70384999999999998</v>
-      </c>
-      <c r="AQ1">
-        <v>0.70255000000000001</v>
-      </c>
-      <c r="AR1">
-        <v>0.70740000000000003</v>
-      </c>
-      <c r="AS1">
-        <v>0.70694999999999997</v>
-      </c>
-      <c r="AT1">
-        <v>0.70569999999999999</v>
-      </c>
       <c r="AU1">
-        <v>0.69430000000000003</v>
+        <v>0.45119999999999999</v>
       </c>
       <c r="AV1">
-        <v>0.45605000000000001</v>
+        <v>0.69915000000000005</v>
       </c>
       <c r="AW1">
-        <v>0.70155000000000001</v>
+        <v>0.45290000000000002</v>
       </c>
       <c r="AX1">
-        <v>0.70320000000000005</v>
+        <v>0.69989999999999997</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.69010000000000005</v>
+        <v>0.69230000000000003</v>
       </c>
       <c r="B2">
-        <v>0.6925</v>
+        <v>0.43314999999999998</v>
       </c>
       <c r="C2">
-        <v>0.43309999999999998</v>
+        <v>0.68610000000000004</v>
       </c>
       <c r="D2">
-        <v>0.68959999999999999</v>
+        <v>0.68774999999999997</v>
       </c>
       <c r="E2">
-        <v>0.68149999999999999</v>
+        <v>0.68189999999999995</v>
       </c>
       <c r="F2">
-        <v>0.93759999999999999</v>
+        <v>0.67695000000000005</v>
       </c>
       <c r="G2">
-        <v>0.43959999999999999</v>
+        <v>0.69259999999999999</v>
       </c>
       <c r="H2">
-        <v>0.69099999999999995</v>
+        <v>0.44285000000000002</v>
       </c>
       <c r="I2">
-        <v>0.7</v>
+        <v>0.92679999999999996</v>
       </c>
       <c r="J2">
-        <v>0.69464999999999999</v>
+        <v>0.69415000000000004</v>
       </c>
       <c r="K2">
-        <v>0.43740000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="L2">
-        <v>0.68569999999999998</v>
+        <v>0.68964999999999999</v>
       </c>
       <c r="M2">
-        <v>0.69484999999999997</v>
+        <v>0.69384999999999997</v>
       </c>
       <c r="N2">
-        <v>0.4415</v>
+        <v>0.69325000000000003</v>
       </c>
       <c r="O2">
-        <v>0.68874999999999997</v>
+        <v>0.67320000000000002</v>
       </c>
       <c r="P2">
-        <v>0.66449999999999998</v>
+        <v>0.66674999999999995</v>
       </c>
       <c r="Q2">
-        <v>0.68074999999999997</v>
+        <v>0.69550000000000001</v>
       </c>
       <c r="R2">
-        <v>0.93354999999999999</v>
+        <v>0.6784</v>
       </c>
       <c r="S2">
-        <v>0.44124999999999998</v>
+        <v>0.69964999999999999</v>
       </c>
       <c r="T2">
-        <v>0.69210000000000005</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="U2">
-        <v>0.69205000000000005</v>
+        <v>0.67820000000000003</v>
       </c>
       <c r="V2">
-        <v>0.68189999999999995</v>
+        <v>0.67905000000000004</v>
       </c>
       <c r="W2">
-        <v>0.6724</v>
+        <v>0.69964999999999999</v>
       </c>
       <c r="X2">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="Y2">
+        <v>0.44074999999999998</v>
+      </c>
+      <c r="Z2">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="AA2">
+        <v>0.67889999999999995</v>
+      </c>
+      <c r="AB2">
+        <v>0.69445000000000001</v>
+      </c>
+      <c r="AC2">
+        <v>0.9395</v>
+      </c>
+      <c r="AD2">
+        <v>0.68935000000000002</v>
+      </c>
+      <c r="AE2">
+        <v>0.68815000000000004</v>
+      </c>
+      <c r="AF2">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>0.66510000000000002</v>
+      </c>
+      <c r="AH2">
+        <v>0.68594999999999995</v>
+      </c>
+      <c r="AI2">
+        <v>0.43569999999999998</v>
+      </c>
+      <c r="AJ2">
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="AK2">
+        <v>0.67605000000000004</v>
+      </c>
+      <c r="AL2">
+        <v>0.68905000000000005</v>
+      </c>
+      <c r="AM2">
+        <v>0.69915000000000005</v>
+      </c>
+      <c r="AN2">
+        <v>0.67264999999999997</v>
+      </c>
+      <c r="AO2">
+        <v>0.44745000000000001</v>
+      </c>
+      <c r="AP2">
+        <v>0.68140000000000001</v>
+      </c>
+      <c r="AQ2">
+        <v>0.69650000000000001</v>
+      </c>
+      <c r="AR2">
+        <v>0.69394999999999996</v>
+      </c>
+      <c r="AS2">
+        <v>0.67889999999999995</v>
+      </c>
+      <c r="AT2">
+        <v>0.94964999999999999</v>
+      </c>
+      <c r="AU2">
+        <v>0.44574999999999998</v>
+      </c>
+      <c r="AV2">
         <v>0.69779999999999998</v>
       </c>
-      <c r="Y2">
-        <v>0.68079999999999996</v>
-      </c>
-      <c r="Z2">
-        <v>0.69045000000000001</v>
-      </c>
-      <c r="AA2">
-        <v>0.68579999999999997</v>
-      </c>
-      <c r="AB2">
-        <v>0.69635000000000002</v>
-      </c>
-      <c r="AC2">
-        <v>0.69440000000000002</v>
-      </c>
-      <c r="AD2">
-        <v>0.67884999999999995</v>
-      </c>
-      <c r="AE2">
-        <v>0.69725000000000004</v>
-      </c>
-      <c r="AF2">
-        <v>0.69320000000000004</v>
-      </c>
-      <c r="AG2">
-        <v>0.69140000000000001</v>
-      </c>
-      <c r="AH2">
-        <v>0.69804999999999995</v>
-      </c>
-      <c r="AI2">
-        <v>0.69564999999999999</v>
-      </c>
-      <c r="AJ2">
-        <v>0.69025000000000003</v>
-      </c>
-      <c r="AK2">
-        <v>0.67695000000000005</v>
-      </c>
-      <c r="AL2">
-        <v>0.69074999999999998</v>
-      </c>
-      <c r="AM2">
-        <v>0.68864999999999998</v>
-      </c>
-      <c r="AN2">
-        <v>0.68059999999999998</v>
-      </c>
-      <c r="AO2">
-        <v>0.67754999999999999</v>
-      </c>
-      <c r="AP2">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="AQ2">
-        <v>0.69184999999999997</v>
-      </c>
-      <c r="AR2">
-        <v>0.68640000000000001</v>
-      </c>
-      <c r="AS2">
-        <v>0.68994999999999995</v>
-      </c>
-      <c r="AT2">
-        <v>0.69355</v>
-      </c>
-      <c r="AU2">
-        <v>0.68</v>
-      </c>
-      <c r="AV2">
-        <v>0.43464999999999998</v>
-      </c>
       <c r="AW2">
-        <v>0.71725000000000005</v>
+        <v>0.45579999999999998</v>
       </c>
       <c r="AX2">
-        <v>0.68840000000000001</v>
+        <v>0.6966</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.67215000000000003</v>
+        <v>0.65234999999999999</v>
       </c>
       <c r="B3">
-        <v>0.86955000000000005</v>
+        <v>0.41254999999999997</v>
       </c>
       <c r="C3">
-        <v>0.4158</v>
+        <v>0.65249999999999997</v>
       </c>
       <c r="D3">
-        <v>0.96014999999999995</v>
+        <v>0.64744999999999997</v>
       </c>
       <c r="E3">
-        <v>0.93574999999999997</v>
+        <v>0.66415000000000002</v>
       </c>
       <c r="F3">
-        <v>0.90159999999999996</v>
+        <v>0.69715000000000005</v>
       </c>
       <c r="G3">
-        <v>0.40029999999999999</v>
+        <v>0.65980000000000005</v>
       </c>
       <c r="H3">
-        <v>0.66790000000000005</v>
+        <v>0.40494999999999998</v>
       </c>
       <c r="I3">
-        <v>0.96475</v>
+        <v>0.88924999999999998</v>
       </c>
       <c r="J3">
-        <v>0.66415000000000002</v>
+        <v>0.64324999999999999</v>
       </c>
       <c r="K3">
-        <v>0.62495000000000001</v>
+        <v>0.6704</v>
       </c>
       <c r="L3">
-        <v>0.65444999999999998</v>
+        <v>0.61529999999999996</v>
       </c>
       <c r="M3">
-        <v>0.68005000000000004</v>
+        <v>0.70340000000000003</v>
       </c>
       <c r="N3">
-        <v>0.41875000000000001</v>
+        <v>0.91034999999999999</v>
       </c>
       <c r="O3">
-        <v>0.64024999999999999</v>
+        <v>0.63360000000000005</v>
       </c>
       <c r="P3">
-        <v>0.64800000000000002</v>
+        <v>0.62419999999999998</v>
       </c>
       <c r="Q3">
-        <v>0.69774999999999998</v>
+        <v>0.67825000000000002</v>
       </c>
       <c r="R3">
-        <v>0.94699999999999995</v>
+        <v>0.88024999999999998</v>
       </c>
       <c r="S3">
-        <v>0.41284999999999999</v>
+        <v>0.65325</v>
       </c>
       <c r="T3">
-        <v>0.69479999999999997</v>
+        <v>0.68394999999999995</v>
       </c>
       <c r="U3">
-        <v>0.66435</v>
+        <v>0.63055000000000005</v>
       </c>
       <c r="V3">
-        <v>0.65205000000000002</v>
+        <v>0.63205</v>
       </c>
       <c r="W3">
-        <v>0.65410000000000001</v>
+        <v>0.65154999999999996</v>
       </c>
       <c r="X3">
-        <v>0.68245</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="Y3">
-        <v>0.63544999999999996</v>
+        <v>0.66615000000000002</v>
       </c>
       <c r="Z3">
-        <v>0.65090000000000003</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="AA3">
-        <v>0.88595000000000002</v>
+        <v>0.63819999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.67710000000000004</v>
+        <v>0.65310000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.91590000000000005</v>
+        <v>0.94745000000000001</v>
       </c>
       <c r="AD3">
-        <v>0.88885000000000003</v>
+        <v>0.65364999999999995</v>
       </c>
       <c r="AE3">
-        <v>0.67130000000000001</v>
+        <v>0.63505</v>
       </c>
       <c r="AF3">
-        <v>0.90600000000000003</v>
+        <v>0.39979999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.91600000000000004</v>
+        <v>0.63575000000000004</v>
       </c>
       <c r="AH3">
-        <v>0.67895000000000005</v>
+        <v>0.66549999999999998</v>
       </c>
       <c r="AI3">
-        <v>0.66900000000000004</v>
+        <v>0.39789999999999998</v>
       </c>
       <c r="AJ3">
-        <v>0.67364999999999997</v>
+        <v>0.69879999999999998</v>
       </c>
       <c r="AK3">
-        <v>0.64695000000000003</v>
+        <v>0.62975000000000003</v>
       </c>
       <c r="AL3">
-        <v>0.64315</v>
+        <v>0.64729999999999999</v>
       </c>
       <c r="AM3">
-        <v>0.65225</v>
+        <v>0.91864999999999997</v>
       </c>
       <c r="AN3">
-        <v>0.6381</v>
+        <v>0.65159999999999996</v>
       </c>
       <c r="AO3">
-        <v>0.63470000000000004</v>
+        <v>0.42609999999999998</v>
       </c>
       <c r="AP3">
-        <v>0.62504999999999999</v>
+        <v>0.64449999999999996</v>
       </c>
       <c r="AQ3">
-        <v>0.66854999999999998</v>
+        <v>0.67374999999999996</v>
       </c>
       <c r="AR3">
-        <v>0.69210000000000005</v>
+        <v>0.63165000000000004</v>
       </c>
       <c r="AS3">
-        <v>0.70204999999999995</v>
+        <v>0.69845000000000002</v>
       </c>
       <c r="AT3">
-        <v>0.64259999999999995</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="AU3">
-        <v>0.64685000000000004</v>
+        <v>0.4123</v>
       </c>
       <c r="AV3">
-        <v>0.38500000000000001</v>
+        <v>0.66190000000000004</v>
       </c>
       <c r="AW3">
-        <v>0.69299999999999995</v>
+        <v>0.42585000000000001</v>
       </c>
       <c r="AX3">
-        <v>0.61455000000000004</v>
+        <v>0.65429999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.88700000000000001</v>
+        <v>0.61124999999999996</v>
       </c>
       <c r="B4">
-        <v>0.82020000000000004</v>
+        <v>0.37874999999999998</v>
       </c>
       <c r="C4">
-        <v>0.32979999999999998</v>
+        <v>0.60785</v>
       </c>
       <c r="D4">
-        <v>0.92220000000000002</v>
+        <v>0.65580000000000005</v>
       </c>
       <c r="E4">
-        <v>0.88439999999999996</v>
+        <v>0.61124999999999996</v>
       </c>
       <c r="F4">
-        <v>0.86909999999999998</v>
+        <v>0.91195000000000004</v>
       </c>
       <c r="G4">
-        <v>0.37519999999999998</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="H4">
-        <v>0.59560000000000002</v>
+        <v>0.38109999999999999</v>
       </c>
       <c r="I4">
-        <v>0.92849999999999999</v>
+        <v>0.83560000000000001</v>
       </c>
       <c r="J4">
+        <v>0.57189999999999996</v>
+      </c>
+      <c r="K4">
+        <v>0.62224999999999997</v>
+      </c>
+      <c r="L4">
+        <v>0.59079999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="N4">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="O4">
+        <v>0.55195000000000005</v>
+      </c>
+      <c r="P4">
+        <v>0.57904999999999995</v>
+      </c>
+      <c r="Q4">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="R4">
+        <v>0.82084999999999997</v>
+      </c>
+      <c r="S4">
+        <v>0.5927</v>
+      </c>
+      <c r="T4">
+        <v>0.66205000000000003</v>
+      </c>
+      <c r="U4">
+        <v>0.57969999999999999</v>
+      </c>
+      <c r="V4">
+        <v>0.61704999999999999</v>
+      </c>
+      <c r="W4">
+        <v>0.60714999999999997</v>
+      </c>
+      <c r="X4">
+        <v>0.59355000000000002</v>
+      </c>
+      <c r="Y4">
+        <v>0.62255000000000005</v>
+      </c>
+      <c r="Z4">
+        <v>0.83545000000000003</v>
+      </c>
+      <c r="AA4">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="AB4">
+        <v>0.61170000000000002</v>
+      </c>
+      <c r="AC4">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="AD4">
+        <v>0.86745000000000005</v>
+      </c>
+      <c r="AE4">
+        <v>0.58555000000000001</v>
+      </c>
+      <c r="AF4">
+        <v>0.36009999999999998</v>
+      </c>
+      <c r="AG4">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="AH4">
+        <v>0.60214999999999996</v>
+      </c>
+      <c r="AI4">
+        <v>0.60104999999999997</v>
+      </c>
+      <c r="AJ4">
+        <v>0.90005000000000002</v>
+      </c>
+      <c r="AK4">
         <v>0.60914999999999997</v>
       </c>
-      <c r="K4">
-        <v>0.65849999999999997</v>
-      </c>
-      <c r="L4">
-        <v>0.60770000000000002</v>
-      </c>
-      <c r="M4">
-        <v>0.98519999999999996</v>
-      </c>
-      <c r="N4">
-        <v>0.36904999999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.91320000000000001</v>
-      </c>
-      <c r="P4">
-        <v>0.60214999999999996</v>
-      </c>
-      <c r="Q4">
-        <v>0.66539999999999999</v>
-      </c>
-      <c r="R4">
-        <v>0.91849999999999998</v>
-      </c>
-      <c r="S4">
-        <v>0.84179999999999999</v>
-      </c>
-      <c r="T4">
-        <v>0.67864999999999998</v>
-      </c>
-      <c r="U4">
-        <v>0.83955000000000002</v>
-      </c>
-      <c r="V4">
-        <v>0.60265000000000002</v>
-      </c>
-      <c r="W4">
-        <v>0.62319999999999998</v>
-      </c>
-      <c r="X4">
-        <v>0.62639999999999996</v>
-      </c>
-      <c r="Y4">
-        <v>0.58550000000000002</v>
-      </c>
-      <c r="Z4">
-        <v>0.60509999999999997</v>
-      </c>
-      <c r="AA4">
-        <v>0.82945000000000002</v>
-      </c>
-      <c r="AB4">
-        <v>0.64975000000000005</v>
-      </c>
-      <c r="AC4">
-        <v>0.87890000000000001</v>
-      </c>
-      <c r="AD4">
-        <v>0.82364999999999999</v>
-      </c>
-      <c r="AE4">
-        <v>0.91925000000000001</v>
-      </c>
-      <c r="AF4">
-        <v>0.8518</v>
-      </c>
-      <c r="AG4">
-        <v>0.89595000000000002</v>
-      </c>
-      <c r="AH4">
-        <v>0.61380000000000001</v>
-      </c>
-      <c r="AI4">
-        <v>0.59824999999999995</v>
-      </c>
-      <c r="AJ4">
-        <v>0.59584999999999999</v>
-      </c>
-      <c r="AK4">
-        <v>0.58340000000000003</v>
-      </c>
       <c r="AL4">
-        <v>0.59399999999999997</v>
+        <v>0.58975</v>
       </c>
       <c r="AM4">
-        <v>0.59845000000000004</v>
+        <v>0.87075000000000002</v>
       </c>
       <c r="AN4">
-        <v>0.56925000000000003</v>
+        <v>0.59565000000000001</v>
       </c>
       <c r="AO4">
-        <v>0.56845000000000001</v>
+        <v>0.38550000000000001</v>
       </c>
       <c r="AP4">
-        <v>0.58394999999999997</v>
+        <v>0.59089999999999998</v>
       </c>
       <c r="AQ4">
-        <v>0.62334999999999996</v>
+        <v>0.91264999999999996</v>
       </c>
       <c r="AR4">
-        <v>0.91649999999999998</v>
+        <v>0.58240000000000003</v>
       </c>
       <c r="AS4">
-        <v>0.66615000000000002</v>
+        <v>0.6724</v>
       </c>
       <c r="AT4">
-        <v>0.58535000000000004</v>
+        <v>0.87009999999999998</v>
       </c>
       <c r="AU4">
-        <v>0.59140000000000004</v>
+        <v>0.64724999999999999</v>
       </c>
       <c r="AV4">
-        <v>0.58960000000000001</v>
+        <v>0.64065000000000005</v>
       </c>
       <c r="AW4">
-        <v>0.67454999999999998</v>
+        <v>0.37869999999999998</v>
       </c>
       <c r="AX4">
-        <v>0.59065000000000001</v>
+        <v>0.60399999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.88334999999999997</v>
+        <v>0.52644999999999997</v>
       </c>
       <c r="B5">
-        <v>0.77364999999999995</v>
+        <v>0.30359999999999998</v>
       </c>
       <c r="C5">
-        <v>0.49730000000000002</v>
+        <v>0.55020000000000002</v>
       </c>
       <c r="D5">
-        <v>0.85440000000000005</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E5">
-        <v>0.79910000000000003</v>
+        <v>0.83204999999999996</v>
       </c>
       <c r="F5">
-        <v>0.76905000000000001</v>
+        <v>0.88260000000000005</v>
       </c>
       <c r="G5">
-        <v>0.31940000000000002</v>
+        <v>0.64119999999999999</v>
       </c>
       <c r="H5">
-        <v>0.50124999999999997</v>
+        <v>0.30914999999999998</v>
       </c>
       <c r="I5">
-        <v>0.87209999999999999</v>
+        <v>0.76070000000000004</v>
       </c>
       <c r="J5">
-        <v>0.53854999999999997</v>
+        <v>0.59550000000000003</v>
       </c>
       <c r="K5">
-        <v>0.82930000000000004</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="L5">
-        <v>0.50465000000000004</v>
+        <v>0.76565000000000005</v>
       </c>
       <c r="M5">
-        <v>0.95540000000000003</v>
+        <v>0.63465000000000005</v>
       </c>
       <c r="N5">
-        <v>0.63429999999999997</v>
+        <v>0.85445000000000004</v>
       </c>
       <c r="O5">
-        <v>0.87960000000000005</v>
+        <v>0.50180000000000002</v>
       </c>
       <c r="P5">
-        <v>0.86665000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="Q5">
-        <v>0.84655000000000002</v>
+        <v>0.88065000000000004</v>
       </c>
       <c r="R5">
-        <v>0.90154999999999996</v>
+        <v>0.82730000000000004</v>
       </c>
       <c r="S5">
-        <v>0.71279999999999999</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="T5">
-        <v>0.62724999999999997</v>
+        <v>0.59114999999999995</v>
       </c>
       <c r="U5">
-        <v>0.84160000000000001</v>
+        <v>0.63544999999999996</v>
       </c>
       <c r="V5">
-        <v>0.51734999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W5">
-        <v>0.51554999999999995</v>
+        <v>0.52495000000000003</v>
       </c>
       <c r="X5">
-        <v>0.90169999999999995</v>
+        <v>0.52680000000000005</v>
       </c>
       <c r="Y5">
-        <v>0.51990000000000003</v>
+        <v>0.55649999999999999</v>
       </c>
       <c r="Z5">
-        <v>0.72260000000000002</v>
+        <v>0.86245000000000005</v>
       </c>
       <c r="AA5">
-        <v>0.79705000000000004</v>
+        <v>0.51154999999999995</v>
       </c>
       <c r="AB5">
-        <v>0.56584999999999996</v>
+        <v>0.66769999999999996</v>
       </c>
       <c r="AC5">
-        <v>0.80100000000000005</v>
+        <v>0.96794999999999998</v>
       </c>
       <c r="AD5">
-        <v>0.67030000000000001</v>
+        <v>0.89370000000000005</v>
       </c>
       <c r="AE5">
-        <v>0.86119999999999997</v>
+        <v>0.50929999999999997</v>
       </c>
       <c r="AF5">
-        <v>0.78939999999999999</v>
+        <v>0.31780000000000003</v>
       </c>
       <c r="AG5">
-        <v>0.90544999999999998</v>
+        <v>0.50485000000000002</v>
       </c>
       <c r="AH5">
-        <v>0.54984999999999995</v>
+        <v>0.50439999999999996</v>
       </c>
       <c r="AI5">
-        <v>0.52244999999999997</v>
+        <v>0.51934999999999998</v>
       </c>
       <c r="AJ5">
-        <v>0.52825</v>
+        <v>0.95304999999999995</v>
       </c>
       <c r="AK5">
-        <v>0.53734999999999999</v>
+        <v>0.62570000000000003</v>
       </c>
       <c r="AL5">
-        <v>0.61329999999999996</v>
+        <v>0.72835000000000005</v>
       </c>
       <c r="AM5">
-        <v>0.52549999999999997</v>
+        <v>0.77944999999999998</v>
       </c>
       <c r="AN5">
-        <v>0.61670000000000003</v>
+        <v>0.53080000000000005</v>
       </c>
       <c r="AO5">
-        <v>0.60970000000000002</v>
+        <v>0.29415000000000002</v>
       </c>
       <c r="AP5">
-        <v>0.54464999999999997</v>
+        <v>0.49995000000000001</v>
       </c>
       <c r="AQ5">
-        <v>0.53200000000000003</v>
+        <v>0.92510000000000003</v>
       </c>
       <c r="AR5">
-        <v>0.87165000000000004</v>
+        <v>0.62490000000000001</v>
       </c>
       <c r="AS5">
-        <v>0.63419999999999999</v>
+        <v>0.64615</v>
       </c>
       <c r="AT5">
-        <v>0.86509999999999998</v>
+        <v>0.87460000000000004</v>
       </c>
       <c r="AU5">
-        <v>0.61465000000000003</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="AV5">
-        <v>0.73609999999999998</v>
+        <v>0.56154999999999999</v>
       </c>
       <c r="AW5">
-        <v>0.62790000000000001</v>
+        <v>0.33129999999999998</v>
       </c>
       <c r="AX5">
-        <v>0.53410000000000002</v>
+        <v>0.50260000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.78695000000000004</v>
+        <v>0.40634999999999999</v>
       </c>
       <c r="B6">
-        <v>0.75429999999999997</v>
+        <v>0.40744999999999998</v>
       </c>
       <c r="C6">
-        <v>0.75705</v>
+        <v>0.79405000000000003</v>
       </c>
       <c r="D6">
-        <v>0.79895000000000005</v>
+        <v>0.80640000000000001</v>
       </c>
       <c r="E6">
-        <v>0.87255000000000005</v>
+        <v>0.80910000000000004</v>
       </c>
       <c r="F6">
-        <v>0.7893</v>
+        <v>0.83984999999999999</v>
       </c>
       <c r="G6">
-        <v>0.23185</v>
+        <v>0.83325000000000005</v>
       </c>
       <c r="H6">
-        <v>0.41985</v>
+        <v>0.42645</v>
       </c>
       <c r="I6">
-        <v>0.93069999999999997</v>
+        <v>0.83184999999999998</v>
       </c>
       <c r="J6">
+        <v>0.49054999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="L6">
+        <v>0.66625000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.78359999999999996</v>
+      </c>
+      <c r="N6">
+        <v>0.74675000000000002</v>
+      </c>
+      <c r="O6">
+        <v>0.4007</v>
+      </c>
+      <c r="P6">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="Q6">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="R6">
+        <v>0.77910000000000001</v>
+      </c>
+      <c r="S6">
+        <v>0.46234999999999998</v>
+      </c>
+      <c r="T6">
+        <v>0.45695000000000002</v>
+      </c>
+      <c r="U6">
+        <v>0.76085000000000003</v>
+      </c>
+      <c r="V6">
+        <v>0.57615000000000005</v>
+      </c>
+      <c r="W6">
+        <v>0.60634999999999994</v>
+      </c>
+      <c r="X6">
+        <v>0.43830000000000002</v>
+      </c>
+      <c r="Y6">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="Z6">
+        <v>0.79505000000000003</v>
+      </c>
+      <c r="AA6">
+        <v>0.57179999999999997</v>
+      </c>
+      <c r="AB6">
+        <v>0.64024999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="AD6">
+        <v>0.83745000000000003</v>
+      </c>
+      <c r="AE6">
+        <v>0.41339999999999999</v>
+      </c>
+      <c r="AF6">
+        <v>0.61729999999999996</v>
+      </c>
+      <c r="AG6">
+        <v>0.41270000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>0.3871</v>
+      </c>
+      <c r="AI6">
+        <v>0.42304999999999998</v>
+      </c>
+      <c r="AJ6">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="AK6">
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="AL6">
+        <v>0.75144999999999995</v>
+      </c>
+      <c r="AM6">
+        <v>0.68815000000000004</v>
+      </c>
+      <c r="AN6">
+        <v>0.42480000000000001</v>
+      </c>
+      <c r="AO6">
+        <v>0.21485000000000001</v>
+      </c>
+      <c r="AP6">
+        <v>0.42415000000000003</v>
+      </c>
+      <c r="AQ6">
+        <v>0.83584999999999998</v>
+      </c>
+      <c r="AR6">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="AS6">
         <v>0.57064999999999999</v>
       </c>
-      <c r="K6">
-        <v>0.81169999999999998</v>
-      </c>
-      <c r="L6">
-        <v>0.62834999999999996</v>
-      </c>
-      <c r="M6">
-        <v>0.93630000000000002</v>
-      </c>
-      <c r="N6">
-        <v>0.58625000000000005</v>
-      </c>
-      <c r="O6">
-        <v>0.81645000000000001</v>
-      </c>
-      <c r="P6">
-        <v>0.7278</v>
-      </c>
-      <c r="Q6">
-        <v>0.76395000000000002</v>
-      </c>
-      <c r="R6">
-        <v>0.84475</v>
-      </c>
-      <c r="S6">
-        <v>0.75624999999999998</v>
-      </c>
-      <c r="T6">
-        <v>0.55659999999999998</v>
-      </c>
-      <c r="U6">
-        <v>0.77539999999999998</v>
-      </c>
-      <c r="V6">
-        <v>0.39755000000000001</v>
-      </c>
-      <c r="W6">
-        <v>0.40970000000000001</v>
-      </c>
-      <c r="X6">
-        <v>0.97575000000000001</v>
-      </c>
-      <c r="Y6">
-        <v>0.56774999999999998</v>
-      </c>
-      <c r="Z6">
-        <v>0.61385000000000001</v>
-      </c>
-      <c r="AA6">
-        <v>0.73609999999999998</v>
-      </c>
-      <c r="AB6">
-        <v>0.43020000000000003</v>
-      </c>
-      <c r="AC6">
-        <v>0.79610000000000003</v>
-      </c>
-      <c r="AD6">
-        <v>0.45515</v>
-      </c>
-      <c r="AE6">
-        <v>0.74860000000000004</v>
-      </c>
-      <c r="AF6">
-        <v>0.89315</v>
-      </c>
-      <c r="AG6">
-        <v>0.91034999999999999</v>
-      </c>
-      <c r="AH6">
-        <v>0.46615000000000001</v>
-      </c>
-      <c r="AI6">
-        <v>0.5534</v>
-      </c>
-      <c r="AJ6">
-        <v>0.45405000000000001</v>
-      </c>
-      <c r="AK6">
-        <v>0.59204999999999997</v>
-      </c>
-      <c r="AL6">
-        <v>0.58655000000000002</v>
-      </c>
-      <c r="AM6">
-        <v>0.37159999999999999</v>
-      </c>
-      <c r="AN6">
-        <v>0.56835000000000002</v>
-      </c>
-      <c r="AO6">
-        <v>0.72024999999999995</v>
-      </c>
-      <c r="AP6">
-        <v>0.42525000000000002</v>
-      </c>
-      <c r="AQ6">
-        <v>0.43709999999999999</v>
-      </c>
-      <c r="AR6">
-        <v>0.80135000000000001</v>
-      </c>
-      <c r="AS6">
-        <v>0.61070000000000002</v>
-      </c>
       <c r="AT6">
-        <v>0.80679999999999996</v>
+        <v>0.90905000000000002</v>
       </c>
       <c r="AU6">
-        <v>0.74950000000000006</v>
+        <v>0.73450000000000004</v>
       </c>
       <c r="AV6">
-        <v>0.65410000000000001</v>
+        <v>0.55349999999999999</v>
       </c>
       <c r="AW6">
-        <v>0.62770000000000004</v>
+        <v>0.45779999999999998</v>
       </c>
       <c r="AX6">
-        <v>0.77034999999999998</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.6119</v>
+        <v>0.54749999999999999</v>
       </c>
       <c r="B7">
-        <v>0.63</v>
+        <v>0.46665000000000001</v>
       </c>
       <c r="C7">
-        <v>0.86334999999999995</v>
+        <v>0.75639999999999996</v>
       </c>
       <c r="D7">
-        <v>0.8397</v>
+        <v>0.74065000000000003</v>
       </c>
       <c r="E7">
-        <v>0.79464999999999997</v>
+        <v>0.69764999999999999</v>
       </c>
       <c r="F7">
-        <v>0.66785000000000005</v>
+        <v>0.74685000000000001</v>
       </c>
       <c r="G7">
-        <v>0.13869999999999999</v>
+        <v>0.7087</v>
       </c>
       <c r="H7">
-        <v>0.58235000000000003</v>
+        <v>0.80830000000000002</v>
       </c>
       <c r="I7">
-        <v>0.81674999999999998</v>
+        <v>0.77829999999999999</v>
       </c>
       <c r="J7">
-        <v>0.5786</v>
+        <v>0.41344999999999998</v>
       </c>
       <c r="K7">
-        <v>0.91039999999999999</v>
+        <v>0.60834999999999995</v>
       </c>
       <c r="L7">
-        <v>0.41084999999999999</v>
+        <v>0.52859999999999996</v>
       </c>
       <c r="M7">
-        <v>0.88200000000000001</v>
+        <v>0.61680000000000001</v>
       </c>
       <c r="N7">
-        <v>0.66654999999999998</v>
+        <v>0.71279999999999999</v>
       </c>
       <c r="O7">
-        <v>0.74195</v>
+        <v>0.26465</v>
       </c>
       <c r="P7">
-        <v>0.72975000000000001</v>
+        <v>0.42920000000000003</v>
       </c>
       <c r="Q7">
-        <v>0.70104999999999995</v>
+        <v>0.91564999999999996</v>
       </c>
       <c r="R7">
-        <v>0.89624999999999999</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="S7">
-        <v>0.56789999999999996</v>
+        <v>0.45265</v>
       </c>
       <c r="T7">
-        <v>0.80095000000000005</v>
+        <v>0.47625000000000001</v>
       </c>
       <c r="U7">
-        <v>0.70094999999999996</v>
+        <v>0.92684999999999995</v>
       </c>
       <c r="V7">
-        <v>0.45124999999999998</v>
+        <v>0.54154999999999998</v>
       </c>
       <c r="W7">
-        <v>0.65410000000000001</v>
+        <v>0.45155000000000001</v>
       </c>
       <c r="X7">
-        <v>0.93664999999999998</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="Y7">
-        <v>0.64044999999999996</v>
+        <v>0.50049999999999994</v>
       </c>
       <c r="Z7">
-        <v>0.50360000000000005</v>
+        <v>0.68189999999999995</v>
       </c>
       <c r="AA7">
-        <v>0.66564999999999996</v>
+        <v>0.73895</v>
       </c>
       <c r="AB7">
-        <v>0.45145000000000002</v>
+        <v>0.79990000000000006</v>
       </c>
       <c r="AC7">
-        <v>0.81684999999999997</v>
+        <v>0.72594999999999998</v>
       </c>
       <c r="AD7">
-        <v>0.47544999999999998</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="AE7">
-        <v>0.60794999999999999</v>
+        <v>0.60535000000000005</v>
       </c>
       <c r="AF7">
-        <v>0.84330000000000005</v>
+        <v>0.60465000000000002</v>
       </c>
       <c r="AG7">
-        <v>0.82884999999999998</v>
+        <v>0.2336</v>
       </c>
       <c r="AH7">
-        <v>0.39534999999999998</v>
+        <v>0.24440000000000001</v>
       </c>
       <c r="AI7">
-        <v>0.50665000000000004</v>
+        <v>0.46484999999999999</v>
       </c>
       <c r="AJ7">
-        <v>0.50024999999999997</v>
+        <v>0.83440000000000003</v>
       </c>
       <c r="AK7">
-        <v>0.41620000000000001</v>
+        <v>0.61695</v>
       </c>
       <c r="AL7">
-        <v>0.47484999999999999</v>
+        <v>0.58179999999999998</v>
       </c>
       <c r="AM7">
-        <v>0.25524999999999998</v>
+        <v>0.67035</v>
       </c>
       <c r="AN7">
-        <v>0.53549999999999998</v>
+        <v>0.47635</v>
       </c>
       <c r="AO7">
-        <v>0.64370000000000005</v>
+        <v>0.34460000000000002</v>
       </c>
       <c r="AP7">
-        <v>0.43830000000000002</v>
+        <v>0.31730000000000003</v>
       </c>
       <c r="AQ7">
-        <v>0.32085000000000002</v>
+        <v>0.73865000000000003</v>
       </c>
       <c r="AR7">
-        <v>0.8911</v>
+        <v>0.71120000000000005</v>
       </c>
       <c r="AS7">
-        <v>0.72545000000000004</v>
+        <v>0.49680000000000002</v>
       </c>
       <c r="AT7">
-        <v>0.69494999999999996</v>
+        <v>0.79205000000000003</v>
       </c>
       <c r="AU7">
-        <v>0.56505000000000005</v>
+        <v>0.59440000000000004</v>
       </c>
       <c r="AV7">
-        <v>0.70940000000000003</v>
+        <v>0.53859999999999997</v>
       </c>
       <c r="AW7">
-        <v>0.83565</v>
+        <v>0.37454999999999999</v>
       </c>
       <c r="AX7">
-        <v>0.74424999999999997</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.56115000000000004</v>
+        <v>0.49730000000000002</v>
       </c>
       <c r="B8">
-        <v>0.42044999999999999</v>
+        <v>0.50495000000000001</v>
       </c>
       <c r="C8">
-        <v>0.7177</v>
+        <v>0.63824999999999998</v>
       </c>
       <c r="D8">
-        <v>0.70465</v>
+        <v>0.89119999999999999</v>
       </c>
       <c r="E8">
-        <v>0.55159999999999998</v>
+        <v>0.73080000000000001</v>
       </c>
       <c r="F8">
-        <v>0.77185000000000004</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="G8">
-        <v>4.045E-2</v>
+        <v>0.76060000000000005</v>
       </c>
       <c r="H8">
-        <v>0.72565000000000002</v>
+        <v>0.70509999999999995</v>
       </c>
       <c r="I8">
-        <v>0.69799999999999995</v>
+        <v>0.74575000000000002</v>
       </c>
       <c r="J8">
-        <v>0.52980000000000005</v>
+        <v>0.35194999999999999</v>
       </c>
       <c r="K8">
-        <v>0.76685000000000003</v>
+        <v>0.45629999999999998</v>
       </c>
       <c r="L8">
-        <v>0.20699999999999999</v>
+        <v>0.64124999999999999</v>
       </c>
       <c r="M8">
-        <v>0.89864999999999995</v>
+        <v>0.86745000000000005</v>
       </c>
       <c r="N8">
-        <v>0.63390000000000002</v>
+        <v>0.50355000000000005</v>
       </c>
       <c r="O8">
-        <v>0.92695000000000005</v>
+        <v>0.1565</v>
       </c>
       <c r="P8">
-        <v>0.61604999999999999</v>
+        <v>0.47585</v>
       </c>
       <c r="Q8">
-        <v>0.56974999999999998</v>
+        <v>0.9073</v>
       </c>
       <c r="R8">
-        <v>0.85089999999999999</v>
+        <v>0.62085000000000001</v>
       </c>
       <c r="S8">
-        <v>0.41399999999999998</v>
+        <v>0.63175000000000003</v>
       </c>
       <c r="T8">
-        <v>0.92435</v>
+        <v>0.49580000000000002</v>
       </c>
       <c r="U8">
-        <v>0.88919999999999999</v>
+        <v>0.89324999999999999</v>
       </c>
       <c r="V8">
-        <v>0.4572</v>
+        <v>0.63229999999999997</v>
       </c>
       <c r="W8">
-        <v>0.48749999999999999</v>
+        <v>0.59855000000000003</v>
       </c>
       <c r="X8">
-        <v>0.85624999999999996</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="Y8">
-        <v>0.74195</v>
+        <v>0.36919999999999997</v>
       </c>
       <c r="Z8">
-        <v>0.6038</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="AA8">
-        <v>0.57984999999999998</v>
+        <v>0.56179999999999997</v>
       </c>
       <c r="AB8">
-        <v>0.49654999999999999</v>
+        <v>0.81484999999999996</v>
       </c>
       <c r="AC8">
-        <v>0.98014999999999997</v>
+        <v>0.68964999999999999</v>
       </c>
       <c r="AD8">
-        <v>0.48954999999999999</v>
+        <v>0.78764999999999996</v>
       </c>
       <c r="AE8">
-        <v>0.68505000000000005</v>
+        <v>0.40615000000000001</v>
       </c>
       <c r="AF8">
-        <v>0.83430000000000004</v>
+        <v>0.59389999999999998</v>
       </c>
       <c r="AG8">
-        <v>0.91720000000000002</v>
+        <v>0.20169999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.2989</v>
+        <v>0.18925</v>
       </c>
       <c r="AI8">
-        <v>0.40655000000000002</v>
+        <v>0.60494999999999999</v>
       </c>
       <c r="AJ8">
-        <v>0.44474999999999998</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="AK8">
-        <v>0.34644999999999998</v>
+        <v>0.43209999999999998</v>
       </c>
       <c r="AL8">
-        <v>0.60199999999999998</v>
+        <v>0.55149999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.32140000000000002</v>
+        <v>0.42930000000000001</v>
       </c>
       <c r="AN8">
-        <v>0.49299999999999999</v>
+        <v>0.54410000000000003</v>
       </c>
       <c r="AO8">
-        <v>0.75800000000000001</v>
+        <v>0.47735</v>
       </c>
       <c r="AP8">
-        <v>0.43149999999999999</v>
+        <v>0.1953</v>
       </c>
       <c r="AQ8">
-        <v>0.4027</v>
+        <v>0.63475000000000004</v>
       </c>
       <c r="AR8">
-        <v>0.81815000000000004</v>
+        <v>0.63275000000000003</v>
       </c>
       <c r="AS8">
-        <v>0.84135000000000004</v>
+        <v>0.48435</v>
       </c>
       <c r="AT8">
-        <v>0.8236</v>
+        <v>0.95304999999999995</v>
       </c>
       <c r="AU8">
-        <v>0.49099999999999999</v>
+        <v>0.4592</v>
       </c>
       <c r="AV8">
-        <v>0.72184999999999999</v>
+        <v>0.50529999999999997</v>
       </c>
       <c r="AW8">
-        <v>0.73309999999999997</v>
+        <v>0.25679999999999997</v>
       </c>
       <c r="AX8">
-        <v>0.64580000000000004</v>
+        <v>0.39839999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.37264999999999998</v>
+        <v>0.39245000000000002</v>
       </c>
       <c r="B9">
-        <v>0.61780000000000002</v>
+        <v>0.29485</v>
       </c>
       <c r="C9">
-        <v>0.47849999999999998</v>
+        <v>0.68325000000000002</v>
       </c>
       <c r="D9">
-        <v>0.61639999999999995</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="E9">
-        <v>0.3579</v>
+        <v>0.80395000000000005</v>
       </c>
       <c r="F9">
-        <v>0.65269999999999995</v>
+        <v>0.76319999999999999</v>
       </c>
       <c r="G9">
-        <v>0.1016</v>
+        <v>0.65129999999999999</v>
       </c>
       <c r="H9">
-        <v>0.48530000000000001</v>
+        <v>0.58314999999999995</v>
       </c>
       <c r="I9">
-        <v>0.50614999999999999</v>
+        <v>0.55754999999999999</v>
       </c>
       <c r="J9">
-        <v>0.73265000000000002</v>
+        <v>0.49754999999999999</v>
       </c>
       <c r="K9">
-        <v>0.68005000000000004</v>
+        <v>0.43020000000000003</v>
       </c>
       <c r="L9">
-        <v>0.34194999999999998</v>
+        <v>0.50265000000000004</v>
       </c>
       <c r="M9">
-        <v>0.78835</v>
+        <v>0.89395000000000002</v>
       </c>
       <c r="N9">
-        <v>0.69289999999999996</v>
+        <v>0.40275</v>
       </c>
       <c r="O9">
-        <v>0.88400000000000001</v>
+        <v>0.15959999999999999</v>
       </c>
       <c r="P9">
-        <v>0.60575000000000001</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="Q9">
-        <v>0.60650000000000004</v>
+        <v>0.91015000000000001</v>
       </c>
       <c r="R9">
-        <v>0.75814999999999999</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="S9">
-        <v>0.35065000000000002</v>
+        <v>0.76339999999999997</v>
       </c>
       <c r="T9">
-        <v>0.94035000000000002</v>
+        <v>0.74334999999999996</v>
       </c>
       <c r="U9">
-        <v>0.81510000000000005</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="V9">
-        <v>0.52364999999999995</v>
+        <v>0.51270000000000004</v>
       </c>
       <c r="W9">
-        <v>0.49059999999999998</v>
+        <v>0.63375000000000004</v>
       </c>
       <c r="X9">
-        <v>0.71350000000000002</v>
+        <v>0.62605</v>
       </c>
       <c r="Y9">
-        <v>0.69479999999999997</v>
+        <v>0.50505</v>
       </c>
       <c r="Z9">
-        <v>0.55210000000000004</v>
+        <v>0.66679999999999995</v>
       </c>
       <c r="AA9">
-        <v>0.51480000000000004</v>
+        <v>0.52705000000000002</v>
       </c>
       <c r="AB9">
-        <v>0.33595000000000003</v>
+        <v>0.88329999999999997</v>
       </c>
       <c r="AC9">
-        <v>0.88854999999999995</v>
+        <v>0.80640000000000001</v>
       </c>
       <c r="AD9">
-        <v>0.56884999999999997</v>
+        <v>0.62590000000000001</v>
       </c>
       <c r="AE9">
-        <v>0.44130000000000003</v>
+        <v>0.45040000000000002</v>
       </c>
       <c r="AF9">
-        <v>0.71155000000000002</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="AG9">
-        <v>0.87944999999999995</v>
+        <v>0.3049</v>
       </c>
       <c r="AH9">
-        <v>0.13735</v>
+        <v>0.36714999999999998</v>
       </c>
       <c r="AI9">
-        <v>0.57179999999999997</v>
+        <v>0.57115000000000005</v>
       </c>
       <c r="AJ9">
-        <v>0.51424999999999998</v>
+        <v>0.61460000000000004</v>
       </c>
       <c r="AK9">
-        <v>0.69194999999999995</v>
+        <v>0.2399</v>
       </c>
       <c r="AL9">
-        <v>0.66774999999999995</v>
+        <v>0.44259999999999999</v>
       </c>
       <c r="AM9">
-        <v>0.36664999999999998</v>
+        <v>0.70009999999999994</v>
       </c>
       <c r="AN9">
-        <v>0.48235</v>
+        <v>0.57850000000000001</v>
       </c>
       <c r="AO9">
-        <v>0.69794999999999996</v>
+        <v>0.28494999999999998</v>
       </c>
       <c r="AP9">
-        <v>0.45324999999999999</v>
+        <v>0.3538</v>
       </c>
       <c r="AQ9">
-        <v>0.27539999999999998</v>
+        <v>0.41465000000000002</v>
       </c>
       <c r="AR9">
-        <v>0.75714999999999999</v>
+        <v>0.56559999999999999</v>
       </c>
       <c r="AS9">
-        <v>0.80205000000000004</v>
+        <v>0.72865000000000002</v>
       </c>
       <c r="AT9">
-        <v>0.83574999999999999</v>
+        <v>0.92284999999999995</v>
       </c>
       <c r="AU9">
-        <v>0.42320000000000002</v>
+        <v>0.23280000000000001</v>
       </c>
       <c r="AV9">
-        <v>0.84814999999999996</v>
+        <v>0.65175000000000005</v>
       </c>
       <c r="AW9">
-        <v>0.57250000000000001</v>
+        <v>0.2979</v>
       </c>
       <c r="AX9">
-        <v>0.77454999999999996</v>
+        <v>0.21925</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.34760000000000002</v>
+        <v>0.21940000000000001</v>
       </c>
       <c r="B10">
-        <v>0.54285000000000005</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="C10">
-        <v>0.38009999999999999</v>
+        <v>0.65795000000000003</v>
       </c>
       <c r="D10">
-        <v>0.79484999999999995</v>
+        <v>0.80654999999999999</v>
       </c>
       <c r="E10">
-        <v>0.36459999999999998</v>
+        <v>0.75854999999999995</v>
       </c>
       <c r="F10">
-        <v>0.80354999999999999</v>
+        <v>0.89390000000000003</v>
       </c>
       <c r="G10">
-        <v>4.1599999999999998E-2</v>
+        <v>0.55184999999999995</v>
       </c>
       <c r="H10">
-        <v>0.52690000000000003</v>
+        <v>0.33665</v>
       </c>
       <c r="I10">
-        <v>0.66669999999999996</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="J10">
-        <v>0.75660000000000005</v>
+        <v>0.47770000000000001</v>
       </c>
       <c r="K10">
-        <v>0.66569999999999996</v>
+        <v>0.40884999999999999</v>
       </c>
       <c r="L10">
-        <v>0.29654999999999998</v>
+        <v>0.68989999999999996</v>
       </c>
       <c r="M10">
-        <v>0.69055</v>
+        <v>0.76959999999999995</v>
       </c>
       <c r="N10">
-        <v>0.69350000000000001</v>
+        <v>0.35785</v>
       </c>
       <c r="O10">
-        <v>0.92584999999999995</v>
+        <v>0.43070000000000003</v>
       </c>
       <c r="P10">
-        <v>0.50180000000000002</v>
+        <v>0.1305</v>
       </c>
       <c r="Q10">
-        <v>0.57779999999999998</v>
+        <v>0.91585000000000005</v>
       </c>
       <c r="R10">
-        <v>0.63454999999999995</v>
+        <v>0.69989999999999997</v>
       </c>
       <c r="S10">
-        <v>0.41189999999999999</v>
+        <v>0.74860000000000004</v>
       </c>
       <c r="T10">
-        <v>0.89180000000000004</v>
+        <v>0.70315000000000005</v>
       </c>
       <c r="U10">
-        <v>0.78705000000000003</v>
+        <v>0.88829999999999998</v>
       </c>
       <c r="V10">
-        <v>0.66085000000000005</v>
+        <v>0.61194999999999999</v>
       </c>
       <c r="W10">
-        <v>0.49959999999999999</v>
+        <v>0.64775000000000005</v>
       </c>
       <c r="X10">
-        <v>0.86134999999999995</v>
+        <v>0.71789999999999998</v>
       </c>
       <c r="Y10">
-        <v>0.47799999999999998</v>
+        <v>0.31569999999999998</v>
       </c>
       <c r="Z10">
-        <v>0.54210000000000003</v>
+        <v>0.59770000000000001</v>
       </c>
       <c r="AA10">
-        <v>0.53154999999999997</v>
+        <v>0.36035</v>
       </c>
       <c r="AB10">
-        <v>0.3674</v>
+        <v>0.82125000000000004</v>
       </c>
       <c r="AC10">
-        <v>0.77980000000000005</v>
+        <v>0.68049999999999999</v>
       </c>
       <c r="AD10">
-        <v>0.64670000000000005</v>
+        <v>0.59509999999999996</v>
       </c>
       <c r="AE10">
-        <v>0.43240000000000001</v>
+        <v>0.48320000000000002</v>
       </c>
       <c r="AF10">
-        <v>0.79490000000000005</v>
+        <v>0.37930000000000003</v>
       </c>
       <c r="AG10">
-        <v>0.94594999999999996</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="AH10">
-        <v>0.1094</v>
+        <v>0.39829999999999999</v>
       </c>
       <c r="AI10">
-        <v>0.59350000000000003</v>
+        <v>0.67354999999999998</v>
       </c>
       <c r="AJ10">
-        <v>0.73855000000000004</v>
+        <v>0.47415000000000002</v>
       </c>
       <c r="AK10">
-        <v>0.74795</v>
+        <v>0.11415</v>
       </c>
       <c r="AL10">
-        <v>0.73099999999999998</v>
+        <v>0.39879999999999999</v>
       </c>
       <c r="AM10">
-        <v>0.55245</v>
+        <v>0.82250000000000001</v>
       </c>
       <c r="AN10">
-        <v>0.4929</v>
+        <v>0.78374999999999995</v>
       </c>
       <c r="AO10">
-        <v>0.64319999999999999</v>
+        <v>0.20374999999999999</v>
       </c>
       <c r="AP10">
-        <v>0.47570000000000001</v>
+        <v>0.61019999999999996</v>
       </c>
       <c r="AQ10">
-        <v>0.2908</v>
+        <v>0.39895000000000003</v>
       </c>
       <c r="AR10">
-        <v>0.6573</v>
+        <v>0.45474999999999999</v>
       </c>
       <c r="AS10">
-        <v>0.71765000000000001</v>
+        <v>0.43695000000000001</v>
       </c>
       <c r="AT10">
-        <v>0.8014</v>
+        <v>0.80884999999999996</v>
       </c>
       <c r="AU10">
-        <v>0.39774999999999999</v>
+        <v>0.18965000000000001</v>
       </c>
       <c r="AV10">
-        <v>0.69474999999999998</v>
+        <v>0.54730000000000001</v>
       </c>
       <c r="AW10">
-        <v>0.38650000000000001</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="AX10">
-        <v>0.59840000000000004</v>
+        <v>0.17105000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.2092</v>
+        <v>0.62004999999999999</v>
       </c>
       <c r="B11">
-        <v>0.30695</v>
+        <v>0.63080000000000003</v>
       </c>
       <c r="C11">
-        <v>0.16300000000000001</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="D11">
-        <v>0.61165000000000003</v>
+        <v>0.67074999999999996</v>
       </c>
       <c r="E11">
-        <v>0.52090000000000003</v>
+        <v>0.76985000000000003</v>
       </c>
       <c r="F11">
-        <v>0.62075000000000002</v>
+        <v>0.83889999999999998</v>
       </c>
       <c r="G11">
-        <v>3.1550000000000002E-2</v>
+        <v>0.58740000000000003</v>
       </c>
       <c r="H11">
-        <v>0.3251</v>
+        <v>0.55710000000000004</v>
       </c>
       <c r="I11">
-        <v>0.5837</v>
+        <v>0.59950000000000003</v>
       </c>
       <c r="J11">
-        <v>0.68605000000000005</v>
+        <v>0.55815000000000003</v>
       </c>
       <c r="K11">
-        <v>0.59155000000000002</v>
+        <v>0.47665000000000002</v>
       </c>
       <c r="L11">
-        <v>0.42909999999999998</v>
+        <v>0.39234999999999998</v>
       </c>
       <c r="M11">
-        <v>0.64119999999999999</v>
+        <v>0.77259999999999995</v>
       </c>
       <c r="N11">
-        <v>0.68664999999999998</v>
+        <v>0.50470000000000004</v>
       </c>
       <c r="O11">
-        <v>0.82010000000000005</v>
+        <v>0.4002</v>
       </c>
       <c r="P11">
-        <v>0.53985000000000005</v>
+        <v>0.23594999999999999</v>
       </c>
       <c r="Q11">
-        <v>0.496</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="R11">
-        <v>0.67169999999999996</v>
+        <v>0.78715000000000002</v>
       </c>
       <c r="S11">
-        <v>0.42975000000000002</v>
+        <v>0.61365000000000003</v>
       </c>
       <c r="T11">
-        <v>0.75785000000000002</v>
+        <v>0.69720000000000004</v>
       </c>
       <c r="U11">
-        <v>0.88575000000000004</v>
+        <v>0.97309999999999997</v>
       </c>
       <c r="V11">
-        <v>0.45134999999999997</v>
+        <v>0.64939999999999998</v>
       </c>
       <c r="W11">
-        <v>0.57555000000000001</v>
+        <v>0.5675</v>
       </c>
       <c r="X11">
-        <v>0.72950000000000004</v>
+        <v>0.63080000000000003</v>
       </c>
       <c r="Y11">
-        <v>0.59509999999999996</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="Z11">
-        <v>0.69045000000000001</v>
+        <v>0.73160000000000003</v>
       </c>
       <c r="AA11">
-        <v>0.75900000000000001</v>
+        <v>0.2155</v>
       </c>
       <c r="AB11">
-        <v>0.42909999999999998</v>
+        <v>0.60909999999999997</v>
       </c>
       <c r="AC11">
-        <v>0.68030000000000002</v>
+        <v>0.73950000000000005</v>
       </c>
       <c r="AD11">
-        <v>0.53690000000000004</v>
+        <v>0.65534999999999999</v>
       </c>
       <c r="AE11">
-        <v>0.46984999999999999</v>
+        <v>0.49409999999999998</v>
       </c>
       <c r="AF11">
-        <v>0.73650000000000004</v>
+        <v>0.27489999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.91910000000000003</v>
+        <v>0.43125000000000002</v>
       </c>
       <c r="AH11">
-        <v>0.1023</v>
+        <v>0.53674999999999995</v>
       </c>
       <c r="AI11">
-        <v>0.56194999999999995</v>
+        <v>0.63114999999999999</v>
       </c>
       <c r="AJ11">
-        <v>0.70845000000000002</v>
+        <v>0.31535000000000002</v>
       </c>
       <c r="AK11">
-        <v>0.68089999999999995</v>
+        <v>1.635E-2</v>
       </c>
       <c r="AL11">
-        <v>0.71560000000000001</v>
+        <v>0.60929999999999995</v>
       </c>
       <c r="AM11">
-        <v>0.49795</v>
+        <v>0.90744999999999998</v>
       </c>
       <c r="AN11">
-        <v>0.40479999999999999</v>
+        <v>0.65485000000000004</v>
       </c>
       <c r="AO11">
-        <v>0.65625</v>
+        <v>0.3548</v>
       </c>
       <c r="AP11">
-        <v>0.49175000000000002</v>
+        <v>0.70935000000000004</v>
       </c>
       <c r="AQ11">
-        <v>0.24095</v>
+        <v>0.70814999999999995</v>
       </c>
       <c r="AR11">
-        <v>0.81745000000000001</v>
+        <v>0.36720000000000003</v>
       </c>
       <c r="AS11">
-        <v>0.56664999999999999</v>
+        <v>0.63229999999999997</v>
       </c>
       <c r="AT11">
-        <v>0.81810000000000005</v>
+        <v>0.76749999999999996</v>
       </c>
       <c r="AU11">
-        <v>0.38114999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="AV11">
-        <v>0.73445000000000005</v>
+        <v>0.64224999999999999</v>
       </c>
       <c r="AW11">
-        <v>0.47199999999999998</v>
+        <v>0.43525000000000003</v>
       </c>
       <c r="AX11">
-        <v>0.49199999999999999</v>
+        <v>9.1149999999999995E-2</v>
       </c>
     </row>
   </sheetData>
